--- a/whowherewhen/whowhenwhere_test_result_olahraga_evaluated.xlsx
+++ b/whowherewhen/whowhenwhere_test_result_olahraga_evaluated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PetaKabar\whowherewhen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66A8134-1A34-4298-8498-714A75811E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E9BB7C-A292-46C5-BE88-A30B31C618AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="223">
   <si>
     <t>who_n</t>
   </si>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t>17/12/2022</t>
-  </si>
-  <si>
-    <t>blora</t>
   </si>
   <si>
     <t>jawa tengah</t>
@@ -2723,9 +2720,6 @@
   </si>
   <si>
     <t>16/12/2022</t>
-  </si>
-  <si>
-    <t>denpasar</t>
   </si>
   <si>
     <t>bali</t>
@@ -3743,12 +3737,6 @@
     <t>nonton bareng, aktivasi</t>
   </si>
   <si>
-    <t>ambon</t>
-  </si>
-  <si>
-    <t>maluku</t>
-  </si>
-  <si>
     <t>jayapura</t>
   </si>
   <si>
@@ -4134,6 +4122,162 @@
 ___x000D_
 _x000D_
  </t>
+  </si>
+  <si>
+    <t>Aston Villa, Tyrone Mings, Emiliano Buendia, Douglas Luiz, Tottenham, Ollie Watkins, Ivan Perisic, Hojbjerg, Boubacar Kamara, Yves Bissouma, Ezri Konsa, Villa, Ashley Young, Young, Villa Robin Olsen, Cristian Romero, Matt Doherty</t>
+  </si>
+  <si>
+    <t>Iptu Umbaran, Wakhid, Wibowo, Dilansir, Wakil Bupati, Abdul Wakhid, Kartika Hidayati</t>
+  </si>
+  <si>
+    <t>Kenzo, Taisei Marukawa, PSIS, Gelandang Juku Eja, Assegaf Razak, PSM, PSM Bernardo Tavares, Marukawa, Assegaf, Laskar Mahesa</t>
+  </si>
+  <si>
+    <t>Walid Regragui, Ziyech Cs, Timnas Maroko, Sport Bible, Real Dronten, UEFA Europa League, Heerenveen Vs Rapid Bucuresti, Singa Atlas, Regragui, UEFA Champions League, Ziyech, Pemain, Profil Hakim Ziyech Hakim Ziyech, Spanyol, Maroko, Belanda, Al Khor, Qatar, Halilhodzic, Maroko Vs Belgia, Grup F, SC Heerenveen, NEC, FC Twente, U21, Hakim Ziyech, Vahid Halilhodzic, Kroasia</t>
+  </si>
+  <si>
+    <t>Liga Inggris, Ben Mee, Mbeumo, Ibrahima Konate, Alisson, Bryan Mbeumo, Yoane Wissa, Serangan Liverpool, Laga Brentford, Brentford, Thiago, Christian Norgaard, WIB, Mohamed Salah, Ethan Pinnock, Alisson Becker, Nunez, Darwin Nunez, David, Chamberlain, Arnold, Fabinho, Wissa, VAR, Liverpool</t>
+  </si>
+  <si>
+    <t>PSS, PSIS, Assegaf Razak, PSM, Bernardo Tavares, Assegaf, Borneo FC, Madura United, Ramang, Laskar Mahesa</t>
+  </si>
+  <si>
+    <t>Ibrahim Tompo, Bobotoh Desak Laga Persib Vs Persija, Bupati, Kapolsek Bojongloa Kidul Kompol Air Purwantono, Emirates Red Crescent, Kabid Humas Polda, El Classico, Trisakti Sadarehe, Herman Suherman, Acsena Humanis Respon Foundation, Polda, Gusdul, Pemotor Nyaris, Anyu Hermawan, Mabes Polri, Agus Rachmat, Gunung Cireami Tetap, Ibrahim, Andika, BKR, Stadion GBLA, Polrestabes, Pengunggah, Edy, Nisa, Daniel, Kombes, Kasi Trantib, Pamobvit, Kompol Edy Kusmawan, Apuy, Korban, Palabuhanratu, Palutungan, Acsena Bakal, KPK, Teddy Tjahjono, Founder Acsena Humanis Respon Andika Karisma, Anyu, CCTV, Bojongloa Kidul, Persija, Herman, Acsena Humanis Respon, Linggajati, Persib, Acsena, Ari, Pelapor, Kapolsek, Bobotoh Club, Gunung Ciremai</t>
+  </si>
+  <si>
+    <t>PSIS, Pemain Juku Eja, PSM, Madura United, Tony, Tony Ho</t>
+  </si>
+  <si>
+    <t>Pesut Etam, Juku Eja, Assegaf Razak, PSM, Ahasil, Tavares, Borneo FC Matheus Pato, Bernardo Tavares, United, Borneo FC, Ramang, Agung Mannan, Tim Ramang</t>
+  </si>
+  <si>
+    <t>Dries Mertens, Abdelhamid Sabiri, Sofyan Amrabat, Noussair Mazraoui, Romain Saiss, Roman Saiss, Thorgan Hazard, Munir Mohamedi, Ziyech, Nayef Aguerd, Maroko, Timothy Castagne, WIB, Doha, Sabiri, Axel Witsel, Zakaria Aboukhlal, The Atlas Lions, Michy Batshuayi, Kevin De Bruyne, Inter Milan, Grup F, Belgia, Toby Alderweireld, Hakim Ziyech, Jan Vertonghen, VAR, Hazard, Courtois</t>
+  </si>
+  <si>
+    <t>Pesut Etam, Tim Juku Eja, Bek Borneo, Javlon Guseynov, Giliran PSM, M Arfan, Borneo FC Vs PSM, Rizky, Jonathan Bustos, Safruddin Tahar, Borneo, Muhammad Sihran, Borneo FC Lilipaly, Taufany, United, Borneo FC Angga Saputro, Insiden, PSM Yuran Fernandez, Reza Arya Pratama, Mufli Hidayat, Beruntung, Matheus Pato, Ricky Pratama, Rizky Eka Pratama, Bek PSM, Andre Gaspar, Dzaky, Wiljam Pluim, Rasyid Bakri, Andy Harjito, Skuad Juku Eja, PSM, Pasukan Ramang, Kapten Wiljan Pluim, Agung Prasetyo, Bernardo Tavares, Ananda Raehan, PSM Reza Arya, Borneo Angga Saputra, Tim Pesut Etam, Yuran Fernandes, Borneo FC, Madura United, Skor, Hendro Siswanto</t>
+  </si>
+  <si>
+    <t>Gol, Persis, Leo Lelis, Higor Vidal, Ferdinand Sinaga, Jaime, Ryo Matsumoto, Peluang Silvio, Persis Solo, Ernando Ari, WIB, Gianluca Pandeynuwu, Fernando Rodriguez, Duel, Irfan Jauhari, Messidoro, Silvio, Laga, Fabiano Da Rosa, Riswan Lauhim, Alexis Messidoro, Persebaya, Shulton Fajar, Fernandes Rodriguez</t>
+  </si>
+  <si>
+    <t>Abdelhamid Sabiri, Sofyan Amrabat, Ibnu Battuta, Tangier, Badr Benoun, Noussair Mazraoui, Ibnu Batuttah, Inggris, Kunjungi Maroko Presiden RI Ir Soekarno, Selim Amallah, Tim, Majelis Rendah, Presiden Soekarno, Singa Atlas, Youssef, Marrakesh, Afrika, Sistem Pemerintahan Maroko Maroko, Tetouin, Asia, Islam, C, Atlas, UNESCO, Maroko, Nabi Muhammad SAW, Bono, Achraf Hakimi, Nayef Aguerd, Perjalanan Ibnu Batutta, Romawi, Piala Dunia Timnas Maroko, Prancis, Mekkah, Amine Harit, Majelis Tinggi, Zakaria Aboukhlal, Tuhan, Qatar, Prancis Bahasa Prancis, Mauritania, Indonesia, Asal Cendekiawan Muslim Ibnu Battuta, Daya Alam Maroko Maroko, Jawad El Yamiq, Walid Cheddira, Bahasa Arab, China, Piala Dunia, Fosfat, Rabat, Yahia Attiyat Allah, Rif, Sofiane Boufal, House, Meksiko, Soekarno, Arab, Ilias Chair, Abde Ezzalzouli, Mediterania, Monarki Konstitusional Parlementer, Eropa, Kroasia, Bilal El Khannous, Cendekiawan</t>
+  </si>
+  <si>
+    <t>Umpan, Portugal, Adrien Rabiot, Hugo Lloris, Theo Hernandez, Inggris, Tendangan Luke Shaw, Bukayo Saka, Ousmane Dembele, Lloris, Tchouameni, Marcus Rashford, Jordan Henderson, Theo Herandnez, Antoine Griezmann, Aurelien Tchouameni, Harry Kane, Kane, WIB, Prancis, Al Khor, Giroud, Jules Kounde, Harry Maguire, Rabiot, Mason Mount, Dayot Upamecano, Jordan Pickford, Raphael Varane, Dembele, Pickford, VAR, Declan Rice, Luke Shaw, Borussia Dortmund</t>
+  </si>
+  <si>
+    <t>Nindya, Melbourne University, Public Relations Le Minerale Yuna Eka Kristina, Indonesia, Nindyasari Laksmita Putri, BMedSci, Dokter Nindya, Pesta, Yuna, Le Minerale, Head</t>
+  </si>
+  <si>
+    <t>Penyerang, Manchester United, Selamat, Cristiano Ronaldo, Ronaldo, Eropa, Juventus, Real Madrid, Al Nassr</t>
+  </si>
+  <si>
+    <t>Portugal, Ghana, Laga Korea, Ronaldo, Kwon, Joao Cancelo, Kim, WIB, Pepe, Cancelo, Vitinha, La Celeste, Korea, Diogo Costa, Dalot, Al Janoub Stadium, Diogo Dalot, Ricardo Horta, Son, Hwang, Korsel, Antonio Silva, Horta, Uruguay, Tendangan Son</t>
+  </si>
+  <si>
+    <t>Alhasil, Manuel Neuer Cs, Pelatih Jerman, Jerman, Spanyol, Piala Dunia, Kosta Rika, Hansi Flick</t>
+  </si>
+  <si>
+    <t>Enzo, La Albiceleste, Adrien Rabiot, Inggris, Otamendi, Messi, Ibrahima Konate, Fernandez, Nilton Santos, Lionel Scaloni, Italia, Maroko, Polandia, Varane, Acuna, Prancis, Griezmann, Qatar, Kingsley Coman, Giroud, Upamecano, Nicolas Tagliafico, Piala Dunia, Pelatih Didier Deschamps, Alvarez, Raphael Varane, Lionel Messi, Romero, Dino Zoff, Argentina, Miroslav Klose, Lusail, Montiel, La Pulga</t>
+  </si>
+  <si>
+    <t>Juku Eja, PSM, Willy, Bernardo Tavares, Thoriq Alkatiri, United, Bhayangkara FC, Bernardo, Bhayangkara, Tony Ho, Pelatih PSM</t>
+  </si>
+  <si>
+    <t>Juku Eja, PT LIB, Indonesia, PSM, Stadion Jatidiri, Tragedi Kanjuruhan, Pertimbangan Dirut LIB, COVID, Syamsuddin Umar, Direktur Utama PT LIB Ferry Paulus, Legenda PSM, Liga Indonesia, LIB, Syam, Sultan Agung</t>
+  </si>
+  <si>
+    <t>Pelatih, PSIS, Pemain, Juku Eja Bernardo Tavares, PSM, Akbar, UEFA Pro, Indonesia, Bernardo Tavares, Bernardo, Borneo FC</t>
+  </si>
+  <si>
+    <t>Persija, Indonesia, Pesta, Le Minerale, BP</t>
+  </si>
+  <si>
+    <t>Persikabo, Soebroto, Stadion Jatidiri, Bhayangkara FC Vs PSS, MCM, AFC Pro, Tragedi Kanjuruhan, United, Stadion Maguwoharjo, Stadion Sultan Agung, Stadion Manahan, Porprov, Stadion, Madura United Vs PSIS, Vs, Media Officer PSM, Sulaiman Abdul Karim, Persita, PSM, Bernardo Tavares, Tony Ho</t>
+  </si>
+  <si>
+    <t>Kerrab, Vs Madura United, Juku Eja, Assegaf Razak, Lulinha, PSM, Madura, Yuran, Laskar, Yuran Fernandes, Bernardo, Assegaf, Madura United, Reza Arya Pratama</t>
+  </si>
+  <si>
+    <t>Pesut Etam, Pelatih, PSM, Akbar, PSM Bernardo Tavares, UEFA Pro, Bernardo Tavares, Andre Gaspar, Bernardo, Borneo FC</t>
+  </si>
+  <si>
+    <t>Nanti, Siti Fadia Silva Ramadhanti, Fadia, Indonesia, Asian Games, Indonesia Masters, Amin, Apriyani, Malaysia Open, All England</t>
+  </si>
+  <si>
+    <t>Kebuntuan, Penalti, LaLiga, Alaba, Juan Foyth, Gerard Moreno, Vinicius Junior, Alberto Moreno, Karim Benzema, Jelang, Alex Baena, Chukwueze, Dani Parejo, Foyth, WIB, Real Madrid, Thibaut Courtois, Villareal, Danjuma, Ruediger, Militao, Villarreal, Parejo, Rodrygo, Benzema, Moreno, Crossing Valverde, Pau Torres, Yeremy, Kroos, Usai, Wasit, Madrid, Federico Valverde, Juara, Raul Albiol, Courtois, Eder Militao</t>
+  </si>
+  <si>
+    <t>Sampurasun, Activation Manager Persib Rijki Kurniawan, Sauyunan, Rijki, Campus, Persib, Community, Persib Goes, Yuk</t>
+  </si>
+  <si>
+    <t>PSSI, Indonesia, PSM, PT LIB, Bernardo Tavares, Stadion Sultan Agung, Pelatih PSM</t>
+  </si>
+  <si>
+    <t>Tulus, Amin Leiman, Agile Done Well, Lantas</t>
+  </si>
+  <si>
+    <t>M Arfan Cs, Tim Juku Eja, Gol Madura United, Suporter PSM, PSM, Tony Ho, Akbar, Everton Nascimento, Dzaky, Gue PSM Rio Verieza, Yance Sayuri, Madura United, Rio, Timnas Indonesia</t>
+  </si>
+  <si>
+    <t>Tim Juku Eja, Persikabo Dicky Indrayana, Gustavo, Persikabo, Didik Wahyu Wijayance, Lucky Octavianto, PSM, Akbar, M Arfan, Ricky Pratama, Sundulan Yuran, Victor Dethan, Everton Nascimento, Yuran Fernandes, Kenzo Nambu, Gilang Ginarsa, Dybal, Gustavo Henrique</t>
+  </si>
+  <si>
+    <t>Youbel Sondakh, Indonesia Cup, Kendati, Pelita, Satria Muda</t>
+  </si>
+  <si>
+    <t>Portugal, Ronaldo, Ruben Neves, Kwon, Al Rayyan, Joao Cancelo, Kim, WIB, Pepe, Cancelo, Vitinha, Korea, Cristiano Ronaldo, Dalot, Lee, Diogo Dalot, Ricardo Horta, Antonio Silva, Horta</t>
+  </si>
+  <si>
+    <t>Abulelah Al Amri, Lewandowski, Glik, Piotr Zielinski, Mohammed Al Burayk, Mohammed Al Owais, Saleh Al Shehri, Abulelah Al Malki, Salim Al Dawsari, Sami Al Naji, Ali Al Bulayhi, Polandia, Zielinski, Wojciech Szczesny, Kiwior, WIB, Kanno, Mohammed Kanno, Arab Saudi, Laga Polandia, Szczesny, Cash, Al Shehri, Krychowiak, Berezynski, Al Dawsari, Krystian Bielik, Bielik, Frankowski, Saud Abdulhamid, Kiper Polandia Wojciech Szczesny</t>
+  </si>
+  <si>
+    <t>Mitrovic, Nemanja Maksimovic, Serbia, Andrija Zivkovic, Kamerun Vs Serbia, Laga Kamerun Vs Serbia, Sergej, Eric Maxim, Kunde, Nicolas Nkoulou, Aleksandar Mitrovic, Kamerun, Sepakannya, Qatar, Nouhou Tolo, Sasa Lukic, Vincent Aboubakar, Devis Epassy, Al Wakrah, Castelletto, Laga, Tembakan Pierre Kunde, Eric, Vanja, Zivkovic, Tadic, The Eagles, Les Lions</t>
+  </si>
+  <si>
+    <t>Brazil, Qatar, Timnas Brasil, Cafu, FIFA, Inggris, Salt, Ronaldo, Brasil</t>
+  </si>
+  <si>
+    <t>The Guardians, Persita, Duel PSM, PSM, Arema FC, Tragedi Kanjuruhan, Bhayangkara FC, Kickoff, Ramang, Tony Ho</t>
+  </si>
+  <si>
+    <t>Andi Arwin Azis, Alhamdulillah, Anies, Stadion Mattoanging, Stadion Mattoanging Gagal, Arwin, Internasional Stadium, Partai NasDem Anies Rasyid Baswedan, Pemprov, Gubernur DKI</t>
+  </si>
+  <si>
+    <t>Goh Liu Ying, Nova Widianto, Indonesia, Rexy Mainaky, Malaysia, Lumpur, Negeri Jiran, Wun Tee, Kiara, Marcus, Malaysia Open, Rexy</t>
+  </si>
+  <si>
+    <t>Didik Wahyu Wijayance, Alhasil, Persikabo, Ryan Kurnia, Arsan Makarin, Ciro Alves, Alam, Teja, Ciro, Gilang Ginarsa, Diki Indriyana, Heru Cahyono, M Ali Koroy, Lucky Octavianto, Laskar Padjajaran, Silva, Syahrul Lasinari, Kakang Rudianto, Nick Kuipers, Tegar Infantrie, David, Henhen Herdiana, Abdul Aziz, Dedi Kusnandar, Andy Setyo Nugroho, Frets Butuan, Roni Sugeng, Solo, Beckham Putra, Persib, Daisuke Sato, Ali Koroy</t>
+  </si>
+  <si>
+    <t>Institut Nasional Yerba Mate, Driussi, Major League Soccer, Sebastián Driussi, Argentina River Plate, Amerika, Argentina Alexis Mac Allister, Austin, The New York Tines, C, Szychowski, Qatar, Piala Dunia, Nicolás Novello, Uruguay, Timnas Argentina, Juan Jose Szychowski, Lionel Messi, Argentina, Brasil, Melansir The New York Times</t>
+  </si>
+  <si>
+    <t>Dekan Fakultas Ekonomi Unimus Dr Haerudin MT, Dr Hardiwinoto SE, Tanah Air, Inter Milan, Asian Games, Sammy, Erick Thohir, Presiden RI Joko Widodo, Erick, Oxford United, Abdullah Sammy, Eko Yuli Irawan, Eko Yuli, Philadelphia, BUMN</t>
+  </si>
+  <si>
+    <t>Ilja Dijkstra, Indonesia, Oranje, Ilja, KNVB WorldCoaches, Argentina, Oranje Indonesia Festival, Strategi Pemasaran Internasional KNVB Ilja Dijkstra, KNVB, Oranje Indonesia, Belanda, Timnas Belanda</t>
+  </si>
+  <si>
+    <t>Menteri Erick Thohir, Menteri BUMN Erick Thohir, Wakil Gubernur, FC, Andre Rosiade, Indonesia, PSSI, Kanjuruhan, Erick Thohir, Erick, Claudio, PT, Sumatera, Umum PSSI, BUMN</t>
+  </si>
+  <si>
+    <t>Newcastle, Liga Inggris, Danny Ward, Leicester City, Boxing Day, Joelinton, Ward, Guimaraes, Almiron, Wout Faes, Leicester, WIB, Miguel Almiron, Nick Pope, Harvey Barnes, Newcastle United, Daniel Amartey, The Magpies, Sven Botman, Kieran Trippier, Fabian Schar, Kiernan, Manchester City</t>
+  </si>
+  <si>
+    <t>Ramadhan Sananta, Pelatih Timnas Indonesia Shin, AFC Pro, Garuda Muda, Juku Eja, PSM, Spanyol, Bernardo Tavares, Ananda Raehan, Dzaky, Dzaky Asraf, Ramang, Timnas, Tony Ho, Timnas Indonesia, Sananta, Winger Yakob Sayuri</t>
+  </si>
+  <si>
+    <t>Rian, Menarik, Indonesia Open</t>
+  </si>
+  <si>
+    <t>surakarta (solo)</t>
+  </si>
+  <si>
+    <t>ambon</t>
+  </si>
+  <si>
+    <t>maluku</t>
   </si>
 </sst>
 </file>
@@ -4498,8 +4642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="P51" sqref="P51"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T38" sqref="T38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4576,11 +4720,11 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
+      <c r="A2" t="s">
+        <v>171</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4647,11 +4791,11 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0</v>
+      <c r="A3" t="s">
+        <v>172</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4687,42 +4831,42 @@
         <v>25</v>
       </c>
       <c r="N3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" t="s">
         <v>30</v>
       </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3" t="s">
-        <v>25</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>31</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
         <v>32</v>
-      </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>0</v>
+      <c r="A4" t="s">
+        <v>173</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4737,7 +4881,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -4755,187 +4899,187 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" t="s">
         <v>35</v>
       </c>
-      <c r="N4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" t="s">
         <v>36</v>
       </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4" t="s">
-        <v>25</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>37</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4" t="s">
         <v>38</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>1</v>
-      </c>
-      <c r="W4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>0</v>
+      <c r="A5" t="s">
+        <v>174</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
         <v>40</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
+        <v>25</v>
+      </c>
+      <c r="S5" t="s">
+        <v>25</v>
+      </c>
+      <c r="T5" t="s">
+        <v>25</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
         <v>41</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5" t="s">
-        <v>25</v>
-      </c>
-      <c r="S5" t="s">
-        <v>25</v>
-      </c>
-      <c r="T5" t="s">
-        <v>25</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>0</v>
+      <c r="A6" t="s">
+        <v>175</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
         <v>43</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T6" t="s">
+        <v>25</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
         <v>44</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O6" t="s">
-        <v>25</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6" t="s">
-        <v>25</v>
-      </c>
-      <c r="S6" t="s">
-        <v>25</v>
-      </c>
-      <c r="T6" t="s">
-        <v>25</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>0</v>
+      <c r="A7" t="s">
+        <v>176</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -4950,134 +5094,134 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
         <v>34</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="N7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7" t="s">
+        <v>25</v>
+      </c>
+      <c r="S7" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7" t="s">
         <v>46</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7" t="s">
-        <v>25</v>
-      </c>
-      <c r="S7" t="s">
-        <v>37</v>
-      </c>
-      <c r="T7" t="s">
-        <v>38</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>1</v>
-      </c>
-      <c r="W7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>0</v>
+      <c r="A8" t="s">
+        <v>177</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
         <v>48</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
         <v>49</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
         <v>50</v>
       </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>51</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>52</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8" t="s">
+        <v>25</v>
+      </c>
+      <c r="S8" t="s">
+        <v>25</v>
+      </c>
+      <c r="T8" t="s">
+        <v>52</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
         <v>53</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8" t="s">
-        <v>25</v>
-      </c>
-      <c r="S8" t="s">
-        <v>25</v>
-      </c>
-      <c r="T8" t="s">
-        <v>53</v>
-      </c>
-      <c r="U8">
-        <v>1</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>0</v>
+      <c r="A9" t="s">
+        <v>178</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -5092,7 +5236,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -5110,14 +5254,14 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" t="s">
         <v>35</v>
       </c>
-      <c r="N9" t="s">
-        <v>35</v>
-      </c>
-      <c r="O9" t="s">
-        <v>36</v>
-      </c>
       <c r="P9">
         <v>1</v>
       </c>
@@ -5128,524 +5272,524 @@
         <v>25</v>
       </c>
       <c r="S9" t="s">
+        <v>54</v>
+      </c>
+      <c r="T9" t="s">
+        <v>29</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9" t="s">
         <v>55</v>
-      </c>
-      <c r="T9" t="s">
-        <v>30</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>1</v>
-      </c>
-      <c r="W9" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>0</v>
+      <c r="A10" t="s">
+        <v>179</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" t="s">
+        <v>35</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
+        <v>25</v>
+      </c>
+      <c r="S10" t="s">
+        <v>34</v>
+      </c>
+      <c r="T10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
         <v>57</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s">
-        <v>50</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10" t="s">
-        <v>35</v>
-      </c>
-      <c r="O10" t="s">
-        <v>36</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10" t="s">
-        <v>25</v>
-      </c>
-      <c r="S10" t="s">
-        <v>35</v>
-      </c>
-      <c r="T10" t="s">
-        <v>36</v>
-      </c>
-      <c r="U10">
-        <v>1</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>0</v>
+      <c r="A11" t="s">
+        <v>180</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11" t="s">
+        <v>25</v>
+      </c>
+      <c r="S11" t="s">
+        <v>25</v>
+      </c>
+      <c r="T11" t="s">
+        <v>25</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
         <v>59</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11" t="s">
-        <v>25</v>
-      </c>
-      <c r="N11" t="s">
-        <v>25</v>
-      </c>
-      <c r="O11" t="s">
-        <v>25</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11" t="s">
-        <v>25</v>
-      </c>
-      <c r="S11" t="s">
-        <v>25</v>
-      </c>
-      <c r="T11" t="s">
-        <v>25</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>0</v>
+      <c r="A12" t="s">
+        <v>181</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O12" t="s">
+        <v>35</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12" t="s">
+        <v>25</v>
+      </c>
+      <c r="S12" t="s">
+        <v>34</v>
+      </c>
+      <c r="T12" t="s">
+        <v>35</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
         <v>61</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>50</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
-        <v>35</v>
-      </c>
-      <c r="N12" t="s">
-        <v>35</v>
-      </c>
-      <c r="O12" t="s">
-        <v>36</v>
-      </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12" t="s">
-        <v>25</v>
-      </c>
-      <c r="S12" t="s">
-        <v>35</v>
-      </c>
-      <c r="T12" t="s">
-        <v>36</v>
-      </c>
-      <c r="U12">
-        <v>1</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>0</v>
+      <c r="A13" t="s">
+        <v>182</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
         <v>63</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" t="s">
         <v>64</v>
       </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>64</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13" t="s">
-        <v>25</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S13" t="s">
         <v>65</v>
       </c>
-      <c r="O13" t="s">
-        <v>36</v>
-      </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13" t="s">
-        <v>25</v>
-      </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
+        <v>31</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13" t="s">
         <v>66</v>
-      </c>
-      <c r="T13" t="s">
-        <v>32</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>1</v>
-      </c>
-      <c r="W13" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>0</v>
+      <c r="A14" t="s">
+        <v>183</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
         <v>68</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
         <v>69</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" t="s">
+        <v>25</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
         <v>70</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14" t="s">
-        <v>25</v>
-      </c>
-      <c r="N14" t="s">
-        <v>25</v>
-      </c>
-      <c r="O14" t="s">
-        <v>25</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14" t="s">
-        <v>25</v>
-      </c>
-      <c r="S14" t="s">
-        <v>25</v>
-      </c>
-      <c r="T14" t="s">
-        <v>25</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>0</v>
+      <c r="A15" t="s">
+        <v>184</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
         <v>72</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
         <v>73</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15" t="s">
-        <v>73</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15" t="s">
-        <v>25</v>
-      </c>
-      <c r="N15" t="s">
-        <v>25</v>
-      </c>
-      <c r="O15" t="s">
-        <v>25</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15" t="s">
-        <v>25</v>
-      </c>
-      <c r="S15" t="s">
-        <v>25</v>
-      </c>
-      <c r="T15" t="s">
-        <v>25</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>0</v>
+      <c r="A16" t="s">
+        <v>185</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" t="s">
+        <v>25</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16" t="s">
+        <v>25</v>
+      </c>
+      <c r="S16" t="s">
+        <v>25</v>
+      </c>
+      <c r="T16" t="s">
+        <v>25</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
         <v>75</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16" t="s">
-        <v>70</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16" t="s">
-        <v>25</v>
-      </c>
-      <c r="N16" t="s">
-        <v>25</v>
-      </c>
-      <c r="O16" t="s">
-        <v>25</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16" t="s">
-        <v>25</v>
-      </c>
-      <c r="S16" t="s">
-        <v>25</v>
-      </c>
-      <c r="T16" t="s">
-        <v>25</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>0</v>
+      <c r="A17" t="s">
+        <v>186</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -5660,702 +5804,702 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
+        <v>25</v>
+      </c>
+      <c r="N17" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" t="s">
+        <v>25</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S17" t="s">
+        <v>25</v>
+      </c>
+      <c r="T17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
         <v>77</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17" t="s">
-        <v>77</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17" t="s">
-        <v>25</v>
-      </c>
-      <c r="N17" t="s">
-        <v>25</v>
-      </c>
-      <c r="O17" t="s">
-        <v>25</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17" t="s">
-        <v>25</v>
-      </c>
-      <c r="S17" t="s">
-        <v>25</v>
-      </c>
-      <c r="T17" t="s">
-        <v>25</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>0</v>
+      <c r="A18" t="s">
+        <v>187</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
         <v>79</v>
       </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>79</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" t="s">
+        <v>25</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18" t="s">
+        <v>25</v>
+      </c>
+      <c r="S18" t="s">
+        <v>25</v>
+      </c>
+      <c r="T18" t="s">
+        <v>25</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
         <v>80</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18" t="s">
-        <v>80</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18" t="s">
-        <v>25</v>
-      </c>
-      <c r="N18" t="s">
-        <v>25</v>
-      </c>
-      <c r="O18" t="s">
-        <v>25</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18" t="s">
-        <v>25</v>
-      </c>
-      <c r="S18" t="s">
-        <v>25</v>
-      </c>
-      <c r="T18" t="s">
-        <v>25</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>0</v>
+      <c r="A19" t="s">
+        <v>188</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>79</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" t="s">
+        <v>25</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19" t="s">
+        <v>25</v>
+      </c>
+      <c r="S19" t="s">
+        <v>25</v>
+      </c>
+      <c r="T19" t="s">
+        <v>25</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
         <v>82</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="s">
-        <v>80</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
-        <v>80</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T19" t="s">
-        <v>25</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>0</v>
+      <c r="A20" t="s">
+        <v>189</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
         <v>84</v>
       </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" t="s">
+        <v>25</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20" t="s">
+        <v>25</v>
+      </c>
+      <c r="S20" t="s">
+        <v>25</v>
+      </c>
+      <c r="T20" t="s">
+        <v>25</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
         <v>85</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20" t="s">
-        <v>85</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20" t="s">
-        <v>25</v>
-      </c>
-      <c r="N20" t="s">
-        <v>25</v>
-      </c>
-      <c r="O20" t="s">
-        <v>25</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20" t="s">
-        <v>25</v>
-      </c>
-      <c r="S20" t="s">
-        <v>25</v>
-      </c>
-      <c r="T20" t="s">
-        <v>25</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>0</v>
+      <c r="A21" t="s">
+        <v>190</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
         <v>87</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
         <v>88</v>
       </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21" t="s">
+        <v>64</v>
+      </c>
+      <c r="N21" t="s">
+        <v>64</v>
+      </c>
+      <c r="O21" t="s">
+        <v>35</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21" t="s">
+        <v>25</v>
+      </c>
+      <c r="S21" t="s">
+        <v>36</v>
+      </c>
+      <c r="T21" t="s">
+        <v>37</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21" t="s">
         <v>89</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21" t="s">
-        <v>65</v>
-      </c>
-      <c r="N21" t="s">
-        <v>65</v>
-      </c>
-      <c r="O21" t="s">
-        <v>36</v>
-      </c>
-      <c r="P21">
-        <v>1</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21" t="s">
-        <v>25</v>
-      </c>
-      <c r="S21" t="s">
-        <v>37</v>
-      </c>
-      <c r="T21" t="s">
-        <v>38</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>1</v>
-      </c>
-      <c r="W21" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>0</v>
+      <c r="A22" t="s">
+        <v>191</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
         <v>91</v>
       </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>91</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" t="s">
         <v>92</v>
       </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22" t="s">
-        <v>92</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22" t="s">
-        <v>25</v>
-      </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
+        <v>31</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22" t="s">
+        <v>25</v>
+      </c>
+      <c r="S22" t="s">
+        <v>36</v>
+      </c>
+      <c r="T22" t="s">
+        <v>37</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
         <v>93</v>
-      </c>
-      <c r="O22" t="s">
-        <v>32</v>
-      </c>
-      <c r="P22">
-        <v>1</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22" t="s">
-        <v>25</v>
-      </c>
-      <c r="S22" t="s">
-        <v>37</v>
-      </c>
-      <c r="T22" t="s">
-        <v>38</v>
-      </c>
-      <c r="U22">
-        <v>1</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>0</v>
+      <c r="A23" t="s">
+        <v>192</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23" t="s">
+        <v>34</v>
+      </c>
+      <c r="N23" t="s">
+        <v>34</v>
+      </c>
+      <c r="O23" t="s">
+        <v>35</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23" t="s">
+        <v>25</v>
+      </c>
+      <c r="S23" t="s">
+        <v>36</v>
+      </c>
+      <c r="T23" t="s">
+        <v>37</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23" t="s">
         <v>95</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="s">
-        <v>50</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23" t="s">
-        <v>34</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23" t="s">
-        <v>35</v>
-      </c>
-      <c r="N23" t="s">
-        <v>35</v>
-      </c>
-      <c r="O23" t="s">
-        <v>36</v>
-      </c>
-      <c r="P23">
-        <v>1</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23" t="s">
-        <v>25</v>
-      </c>
-      <c r="S23" t="s">
-        <v>37</v>
-      </c>
-      <c r="T23" t="s">
-        <v>38</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>1</v>
-      </c>
-      <c r="W23" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>0</v>
+      <c r="A24" t="s">
+        <v>193</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
         <v>97</v>
       </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>97</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24" t="s">
+        <v>25</v>
+      </c>
+      <c r="O24" t="s">
+        <v>25</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24" t="s">
+        <v>25</v>
+      </c>
+      <c r="S24" t="s">
+        <v>25</v>
+      </c>
+      <c r="T24" t="s">
+        <v>25</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
         <v>98</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24" t="s">
-        <v>98</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24" t="s">
-        <v>25</v>
-      </c>
-      <c r="N24" t="s">
-        <v>25</v>
-      </c>
-      <c r="O24" t="s">
-        <v>25</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24" t="s">
-        <v>25</v>
-      </c>
-      <c r="S24" t="s">
-        <v>25</v>
-      </c>
-      <c r="T24" t="s">
-        <v>25</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>0</v>
+      <c r="A25" t="s">
+        <v>194</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>97</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
         <v>100</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="s">
-        <v>98</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" t="s">
+        <v>34</v>
+      </c>
+      <c r="N25" t="s">
+        <v>34</v>
+      </c>
+      <c r="O25" t="s">
+        <v>35</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25" t="s">
+        <v>25</v>
+      </c>
+      <c r="S25" t="s">
+        <v>36</v>
+      </c>
+      <c r="T25" t="s">
+        <v>37</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25" t="s">
         <v>101</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25" t="s">
-        <v>35</v>
-      </c>
-      <c r="N25" t="s">
-        <v>35</v>
-      </c>
-      <c r="O25" t="s">
-        <v>36</v>
-      </c>
-      <c r="P25">
-        <v>1</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25" t="s">
-        <v>25</v>
-      </c>
-      <c r="S25" t="s">
-        <v>37</v>
-      </c>
-      <c r="T25" t="s">
-        <v>38</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>1</v>
-      </c>
-      <c r="W25" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>0</v>
+      <c r="A26" t="s">
+        <v>195</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26" t="s">
+        <v>64</v>
+      </c>
+      <c r="N26" t="s">
+        <v>64</v>
+      </c>
+      <c r="O26" t="s">
+        <v>35</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26" t="s">
+        <v>25</v>
+      </c>
+      <c r="S26" t="s">
+        <v>36</v>
+      </c>
+      <c r="T26" t="s">
+        <v>37</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26" t="s">
         <v>103</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26" t="s">
-        <v>46</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26" t="s">
-        <v>65</v>
-      </c>
-      <c r="N26" t="s">
-        <v>65</v>
-      </c>
-      <c r="O26" t="s">
-        <v>36</v>
-      </c>
-      <c r="P26">
-        <v>1</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26" t="s">
-        <v>25</v>
-      </c>
-      <c r="S26" t="s">
-        <v>37</v>
-      </c>
-      <c r="T26" t="s">
-        <v>38</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>1</v>
-      </c>
-      <c r="W26" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>0</v>
+      <c r="A27" t="s">
+        <v>196</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -6370,7 +6514,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -6379,196 +6523,196 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
+        <v>104</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27" t="s">
+        <v>34</v>
+      </c>
+      <c r="N27" t="s">
+        <v>34</v>
+      </c>
+      <c r="O27" t="s">
+        <v>35</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27" t="s">
+        <v>25</v>
+      </c>
+      <c r="S27" t="s">
+        <v>36</v>
+      </c>
+      <c r="T27" t="s">
+        <v>37</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
+      <c r="W27" t="s">
         <v>105</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27" t="s">
-        <v>35</v>
-      </c>
-      <c r="N27" t="s">
-        <v>35</v>
-      </c>
-      <c r="O27" t="s">
-        <v>36</v>
-      </c>
-      <c r="P27">
-        <v>1</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27" t="s">
-        <v>25</v>
-      </c>
-      <c r="S27" t="s">
-        <v>37</v>
-      </c>
-      <c r="T27" t="s">
-        <v>38</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>1</v>
-      </c>
-      <c r="W27" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>0</v>
+      <c r="A28" t="s">
+        <v>197</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
         <v>107</v>
       </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28" t="s">
+        <v>25</v>
+      </c>
+      <c r="N28" t="s">
+        <v>25</v>
+      </c>
+      <c r="O28" t="s">
+        <v>25</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28" t="s">
+        <v>25</v>
+      </c>
+      <c r="S28" t="s">
+        <v>25</v>
+      </c>
+      <c r="T28" t="s">
+        <v>25</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
         <v>108</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28" t="s">
-        <v>25</v>
-      </c>
-      <c r="N28" t="s">
-        <v>25</v>
-      </c>
-      <c r="O28" t="s">
-        <v>25</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28" t="s">
-        <v>25</v>
-      </c>
-      <c r="S28" t="s">
-        <v>25</v>
-      </c>
-      <c r="T28" t="s">
-        <v>25</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>0</v>
+      <c r="A29" t="s">
+        <v>198</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
         <v>110</v>
       </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>110</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29" t="s">
+        <v>25</v>
+      </c>
+      <c r="N29" t="s">
+        <v>25</v>
+      </c>
+      <c r="O29" t="s">
+        <v>25</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29" t="s">
+        <v>25</v>
+      </c>
+      <c r="S29" t="s">
+        <v>25</v>
+      </c>
+      <c r="T29" t="s">
+        <v>25</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
         <v>111</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29" t="s">
-        <v>111</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29" t="s">
-        <v>25</v>
-      </c>
-      <c r="N29" t="s">
-        <v>25</v>
-      </c>
-      <c r="O29" t="s">
-        <v>25</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29" t="s">
-        <v>25</v>
-      </c>
-      <c r="S29" t="s">
-        <v>25</v>
-      </c>
-      <c r="T29" t="s">
-        <v>25</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>0</v>
+      <c r="A30" t="s">
+        <v>199</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -6583,7 +6727,7 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -6592,7 +6736,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -6604,110 +6748,110 @@
         <v>25</v>
       </c>
       <c r="N30" t="s">
+        <v>25</v>
+      </c>
+      <c r="O30" t="s">
+        <v>25</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30" t="s">
+        <v>25</v>
+      </c>
+      <c r="S30" t="s">
+        <v>25</v>
+      </c>
+      <c r="T30" t="s">
+        <v>25</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
         <v>114</v>
-      </c>
-      <c r="O30" t="s">
-        <v>53</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30" t="s">
-        <v>25</v>
-      </c>
-      <c r="S30" t="s">
-        <v>25</v>
-      </c>
-      <c r="T30" t="s">
-        <v>25</v>
-      </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>0</v>
+      <c r="A31" t="s">
+        <v>200</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
         <v>116</v>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
         <v>117</v>
       </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31" t="s">
+        <v>25</v>
+      </c>
+      <c r="N31" t="s">
+        <v>36</v>
+      </c>
+      <c r="O31" t="s">
+        <v>37</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31" t="s">
+        <v>25</v>
+      </c>
+      <c r="S31" t="s">
+        <v>36</v>
+      </c>
+      <c r="T31" t="s">
+        <v>37</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
         <v>118</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31" t="s">
-        <v>25</v>
-      </c>
-      <c r="N31" t="s">
-        <v>37</v>
-      </c>
-      <c r="O31" t="s">
-        <v>38</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31" t="s">
-        <v>25</v>
-      </c>
-      <c r="S31" t="s">
-        <v>37</v>
-      </c>
-      <c r="T31" t="s">
-        <v>38</v>
-      </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>0</v>
+      <c r="A32" t="s">
+        <v>201</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -6716,26 +6860,26 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
+        <v>119</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
         <v>120</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32" t="s">
-        <v>25</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32" t="s">
-        <v>121</v>
-      </c>
       <c r="K32">
         <v>0</v>
       </c>
@@ -6746,42 +6890,42 @@
         <v>25</v>
       </c>
       <c r="N32" t="s">
+        <v>25</v>
+      </c>
+      <c r="O32" t="s">
+        <v>25</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32" t="s">
+        <v>25</v>
+      </c>
+      <c r="S32" t="s">
+        <v>25</v>
+      </c>
+      <c r="T32" t="s">
+        <v>25</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
         <v>122</v>
-      </c>
-      <c r="O32" t="s">
-        <v>123</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32" t="s">
-        <v>25</v>
-      </c>
-      <c r="S32" t="s">
-        <v>25</v>
-      </c>
-      <c r="T32" t="s">
-        <v>25</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>0</v>
+      <c r="A33" t="s">
+        <v>202</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -6796,7 +6940,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -6805,7 +6949,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -6814,29 +6958,29 @@
         <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O33" t="s">
+        <v>35</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33" t="s">
+        <v>25</v>
+      </c>
+      <c r="S33" t="s">
         <v>36</v>
       </c>
-      <c r="P33">
-        <v>1</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33" t="s">
-        <v>25</v>
-      </c>
-      <c r="S33" t="s">
+      <c r="T33" t="s">
         <v>37</v>
       </c>
-      <c r="T33" t="s">
-        <v>38</v>
-      </c>
       <c r="U33">
         <v>0</v>
       </c>
@@ -6844,21 +6988,21 @@
         <v>1</v>
       </c>
       <c r="W33" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>0</v>
+      <c r="A34" t="s">
+        <v>203</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -6867,7 +7011,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -6876,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -6885,29 +7029,29 @@
         <v>0</v>
       </c>
       <c r="M34" t="s">
+        <v>34</v>
+      </c>
+      <c r="N34" t="s">
+        <v>34</v>
+      </c>
+      <c r="O34" t="s">
         <v>35</v>
       </c>
-      <c r="N34" t="s">
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34" t="s">
+        <v>25</v>
+      </c>
+      <c r="S34" t="s">
+        <v>34</v>
+      </c>
+      <c r="T34" t="s">
         <v>35</v>
       </c>
-      <c r="O34" t="s">
-        <v>36</v>
-      </c>
-      <c r="P34">
-        <v>1</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34" t="s">
-        <v>25</v>
-      </c>
-      <c r="S34" t="s">
-        <v>35</v>
-      </c>
-      <c r="T34" t="s">
-        <v>36</v>
-      </c>
       <c r="U34">
         <v>1</v>
       </c>
@@ -6915,15 +7059,15 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>0</v>
+      <c r="A35" t="s">
+        <v>204</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -6938,7 +7082,7 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -6947,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -6959,10 +7103,10 @@
         <v>25</v>
       </c>
       <c r="N35" t="s">
-        <v>114</v>
+        <v>25</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="P35">
         <v>1</v>
@@ -6977,7 +7121,7 @@
         <v>25</v>
       </c>
       <c r="T35" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="U35">
         <v>1</v>
@@ -6986,21 +7130,21 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>0</v>
+      <c r="A36" t="s">
+        <v>205</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -7009,7 +7153,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -7018,7 +7162,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -7057,21 +7201,21 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>0</v>
+      <c r="A37" t="s">
+        <v>206</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -7080,7 +7224,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -7089,7 +7233,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -7128,157 +7272,157 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>0</v>
+      <c r="A38" t="s">
+        <v>207</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>133</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38" t="s">
+        <v>133</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38" t="s">
+        <v>25</v>
+      </c>
+      <c r="N38" t="s">
+        <v>25</v>
+      </c>
+      <c r="O38" t="s">
+        <v>25</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38" t="s">
+        <v>25</v>
+      </c>
+      <c r="S38" t="s">
+        <v>25</v>
+      </c>
+      <c r="T38" t="s">
+        <v>25</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
         <v>134</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38" t="s">
-        <v>135</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38" t="s">
-        <v>135</v>
-      </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38" t="s">
-        <v>25</v>
-      </c>
-      <c r="N38" t="s">
-        <v>25</v>
-      </c>
-      <c r="O38" t="s">
-        <v>25</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38" t="s">
-        <v>25</v>
-      </c>
-      <c r="S38" t="s">
-        <v>25</v>
-      </c>
-      <c r="T38" t="s">
-        <v>25</v>
-      </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
-      <c r="W38" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>0</v>
+      <c r="A39" t="s">
+        <v>208</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39" t="s">
+        <v>135</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>136</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39" t="s">
+        <v>25</v>
+      </c>
+      <c r="N39" t="s">
+        <v>25</v>
+      </c>
+      <c r="O39" t="s">
+        <v>25</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39" t="s">
+        <v>25</v>
+      </c>
+      <c r="S39" t="s">
+        <v>25</v>
+      </c>
+      <c r="T39" t="s">
+        <v>25</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
         <v>137</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39" t="s">
-        <v>25</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="J39" t="s">
-        <v>138</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="M39" t="s">
-        <v>25</v>
-      </c>
-      <c r="N39" t="s">
-        <v>25</v>
-      </c>
-      <c r="O39" t="s">
-        <v>25</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39" t="s">
-        <v>25</v>
-      </c>
-      <c r="S39" t="s">
-        <v>25</v>
-      </c>
-      <c r="T39" t="s">
-        <v>25</v>
-      </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="W39" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>0</v>
+      <c r="A40" t="s">
+        <v>209</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -7293,7 +7437,7 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -7302,7 +7446,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -7311,29 +7455,29 @@
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O40" t="s">
+        <v>35</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40" t="s">
+        <v>25</v>
+      </c>
+      <c r="S40" t="s">
         <v>36</v>
       </c>
-      <c r="P40">
-        <v>1</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="R40" t="s">
-        <v>25</v>
-      </c>
-      <c r="S40" t="s">
+      <c r="T40" t="s">
         <v>37</v>
       </c>
-      <c r="T40" t="s">
-        <v>38</v>
-      </c>
       <c r="U40">
         <v>0</v>
       </c>
@@ -7341,228 +7485,228 @@
         <v>1</v>
       </c>
       <c r="W40" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>0</v>
+      <c r="A41" t="s">
+        <v>210</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41" t="s">
+        <v>140</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
+        <v>141</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41" t="s">
         <v>142</v>
       </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41" t="s">
+        <v>25</v>
+      </c>
+      <c r="N41" t="s">
+        <v>36</v>
+      </c>
+      <c r="O41" t="s">
+        <v>37</v>
+      </c>
+      <c r="P41">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41" t="s">
+        <v>25</v>
+      </c>
+      <c r="S41" t="s">
+        <v>36</v>
+      </c>
+      <c r="T41" t="s">
+        <v>37</v>
+      </c>
+      <c r="U41">
+        <v>1</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
         <v>143</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41" t="s">
-        <v>144</v>
-      </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41" t="s">
-        <v>25</v>
-      </c>
-      <c r="N41" t="s">
-        <v>37</v>
-      </c>
-      <c r="O41" t="s">
-        <v>38</v>
-      </c>
-      <c r="P41">
-        <v>1</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41" t="s">
-        <v>25</v>
-      </c>
-      <c r="S41" t="s">
-        <v>37</v>
-      </c>
-      <c r="T41" t="s">
-        <v>38</v>
-      </c>
-      <c r="U41">
-        <v>1</v>
-      </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
-      <c r="W41" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>0</v>
+      <c r="A42" t="s">
+        <v>211</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42" t="s">
+        <v>144</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>145</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42" t="s">
         <v>146</v>
       </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42" t="s">
+        <v>25</v>
+      </c>
+      <c r="N42" t="s">
+        <v>25</v>
+      </c>
+      <c r="O42" t="s">
+        <v>25</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42" t="s">
+        <v>25</v>
+      </c>
+      <c r="S42" t="s">
+        <v>25</v>
+      </c>
+      <c r="T42" t="s">
+        <v>25</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
         <v>147</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42" t="s">
-        <v>148</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>1</v>
-      </c>
-      <c r="M42" t="s">
-        <v>25</v>
-      </c>
-      <c r="N42" t="s">
-        <v>25</v>
-      </c>
-      <c r="O42" t="s">
-        <v>25</v>
-      </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42" t="s">
-        <v>25</v>
-      </c>
-      <c r="S42" t="s">
-        <v>25</v>
-      </c>
-      <c r="T42" t="s">
-        <v>25</v>
-      </c>
-      <c r="U42">
-        <v>0</v>
-      </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
-      <c r="W42" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>0</v>
+      <c r="A43" t="s">
+        <v>212</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43" t="s">
+        <v>148</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>149</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43" t="s">
+        <v>149</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43" t="s">
+        <v>25</v>
+      </c>
+      <c r="N43" t="s">
+        <v>220</v>
+      </c>
+      <c r="O43" t="s">
+        <v>29</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43" t="s">
+        <v>113</v>
+      </c>
+      <c r="S43" t="s">
         <v>150</v>
       </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="T43" t="s">
         <v>151</v>
       </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43" t="s">
-        <v>151</v>
-      </c>
-      <c r="K43">
-        <v>1</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43" t="s">
-        <v>25</v>
-      </c>
-      <c r="N43" t="s">
-        <v>114</v>
-      </c>
-      <c r="O43" t="s">
-        <v>53</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>1</v>
-      </c>
-      <c r="R43" t="s">
-        <v>114</v>
-      </c>
-      <c r="S43" t="s">
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>1</v>
+      </c>
+      <c r="W43" t="s">
         <v>152</v>
-      </c>
-      <c r="T43" t="s">
-        <v>153</v>
-      </c>
-      <c r="U43">
-        <v>0</v>
-      </c>
-      <c r="V43">
-        <v>1</v>
-      </c>
-      <c r="W43" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>0</v>
+      <c r="A44" t="s">
+        <v>213</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -7586,7 +7730,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -7625,21 +7769,21 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>0</v>
+      <c r="A45" t="s">
+        <v>214</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -7648,7 +7792,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -7657,7 +7801,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -7669,10 +7813,10 @@
         <v>25</v>
       </c>
       <c r="N45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P45">
         <v>1</v>
@@ -7684,10 +7828,10 @@
         <v>25</v>
       </c>
       <c r="S45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U45">
         <v>1</v>
@@ -7696,92 +7840,92 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>0</v>
+      <c r="A46" t="s">
+        <v>215</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46" t="s">
+        <v>156</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
+        <v>138</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46" t="s">
+        <v>72</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46" t="s">
+        <v>25</v>
+      </c>
+      <c r="N46" t="s">
+        <v>221</v>
+      </c>
+      <c r="O46" t="s">
+        <v>222</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46" t="s">
+        <v>25</v>
+      </c>
+      <c r="S46" t="s">
+        <v>157</v>
+      </c>
+      <c r="T46" t="s">
         <v>158</v>
       </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46" t="s">
-        <v>140</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46" t="s">
-        <v>73</v>
-      </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46" t="s">
-        <v>25</v>
-      </c>
-      <c r="N46" t="s">
+      <c r="U46">
+        <v>1</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
         <v>159</v>
-      </c>
-      <c r="O46" t="s">
-        <v>160</v>
-      </c>
-      <c r="P46">
-        <v>1</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46" t="s">
-        <v>25</v>
-      </c>
-      <c r="S46" t="s">
-        <v>161</v>
-      </c>
-      <c r="T46" t="s">
-        <v>162</v>
-      </c>
-      <c r="U46">
-        <v>1</v>
-      </c>
-      <c r="V46">
-        <v>0</v>
-      </c>
-      <c r="W46" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>0</v>
+      <c r="A47" t="s">
+        <v>216</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -7790,7 +7934,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -7799,7 +7943,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K47">
         <v>1</v>
@@ -7811,10 +7955,10 @@
         <v>25</v>
       </c>
       <c r="N47" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O47" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="P47">
         <v>1</v>
@@ -7829,7 +7973,7 @@
         <v>25</v>
       </c>
       <c r="T47" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="U47">
         <v>1</v>
@@ -7838,21 +7982,21 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>0</v>
+      <c r="A48" t="s">
+        <v>217</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -7861,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -7870,7 +8014,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="K48">
         <v>1</v>
@@ -7909,21 +8053,21 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>0</v>
+      <c r="A49" t="s">
+        <v>218</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -7932,7 +8076,7 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -7941,7 +8085,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -7953,26 +8097,26 @@
         <v>25</v>
       </c>
       <c r="N49" t="s">
+        <v>25</v>
+      </c>
+      <c r="O49" t="s">
+        <v>121</v>
+      </c>
+      <c r="P49">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49" t="s">
+        <v>25</v>
+      </c>
+      <c r="S49" t="s">
+        <v>36</v>
+      </c>
+      <c r="T49" t="s">
         <v>37</v>
       </c>
-      <c r="O49" t="s">
-        <v>38</v>
-      </c>
-      <c r="P49">
-        <v>1</v>
-      </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-      <c r="R49" t="s">
-        <v>25</v>
-      </c>
-      <c r="S49" t="s">
-        <v>37</v>
-      </c>
-      <c r="T49" t="s">
-        <v>38</v>
-      </c>
       <c r="U49">
         <v>1</v>
       </c>
@@ -7980,15 +8124,15 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>0</v>
+      <c r="A50" t="s">
+        <v>219</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -8012,7 +8156,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -8051,7 +8195,7 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/whowherewhen/whowhenwhere_test_result_olahraga_evaluated.xlsx
+++ b/whowherewhen/whowhenwhere_test_result_olahraga_evaluated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PetaKabar\whowherewhen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E9BB7C-A292-46C5-BE88-A30B31C618AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDD69DF-C85C-46FF-835E-2B03AFDB90CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="224">
   <si>
     <t>who_n</t>
   </si>
@@ -4278,6 +4278,9 @@
   </si>
   <si>
     <t>maluku</t>
+  </si>
+  <si>
+    <t>05/01/2023</t>
   </si>
 </sst>
 </file>
@@ -4643,7 +4646,7 @@
   <dimension ref="A1:W50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T38" sqref="T38"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6585,7 +6588,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>25</v>
+        <v>223</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -6869,7 +6872,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -7366,7 +7369,7 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -7721,7 +7724,7 @@
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -8147,7 +8150,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H50">
         <v>0</v>

--- a/whowherewhen/whowhenwhere_test_result_olahraga_evaluated.xlsx
+++ b/whowherewhen/whowhenwhere_test_result_olahraga_evaluated.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PetaKabar\whowherewhen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDD69DF-C85C-46FF-835E-2B03AFDB90CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F45FF9B-5AFD-4F17-A02E-53639BF2C8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -4645,8 +4656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8147,7 +8158,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" t="s">
         <v>33</v>
